--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -50,8 +50,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -64,6 +64,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -72,87 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -161,9 +185,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,38 +202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,25 +217,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,157 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +408,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,54 +495,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -497,17 +508,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -24,25 +24,67 @@
     <t>name</t>
   </si>
   <si>
-    <t>学习</t>
+    <t>showInStatusPanel</t>
+  </si>
+  <si>
+    <t>haveLimit</t>
+  </si>
+  <si>
+    <t>iconName</t>
+  </si>
+  <si>
+    <t>知识</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>property_knowledge</t>
   </si>
   <si>
     <t>艺术</t>
   </si>
   <si>
+    <t>property_music</t>
+  </si>
+  <si>
     <t>体育</t>
   </si>
   <si>
+    <t>property_physical</t>
+  </si>
+  <si>
     <t>钱</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>property_money</t>
+  </si>
+  <si>
     <t>体力</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>property_power</t>
+  </si>
+  <si>
     <t>心情</t>
   </si>
   <si>
+    <t>property_mood</t>
+  </si>
+  <si>
     <t>自持</t>
+  </si>
+  <si>
+    <t>property_selfControl</t>
   </si>
 </sst>
 </file>
@@ -51,8 +93,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -65,48 +107,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -114,34 +219,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,56 +235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,25 +259,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,157 +361,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +450,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,6 +473,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,22 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,38 +545,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,145 +558,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,79 +1055,155 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>10001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>10002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>10003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>10004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>10005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>10006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>10007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,9 @@
     <t>iconName</t>
   </si>
   <si>
+    <t>newRdmRange</t>
+  </si>
+  <si>
     <t>知识</t>
   </si>
   <si>
@@ -45,18 +48,27 @@
     <t>property_knowledge</t>
   </si>
   <si>
+    <t>10|20</t>
+  </si>
+  <si>
     <t>艺术</t>
   </si>
   <si>
     <t>property_music</t>
   </si>
   <si>
+    <t>5|12</t>
+  </si>
+  <si>
     <t>体育</t>
   </si>
   <si>
     <t>property_physical</t>
   </si>
   <si>
+    <t>4|10</t>
+  </si>
+  <si>
     <t>钱</t>
   </si>
   <si>
@@ -66,6 +78,9 @@
     <t>property_money</t>
   </si>
   <si>
+    <t>800|3000</t>
+  </si>
+  <si>
     <t>体力</t>
   </si>
   <si>
@@ -75,6 +90,9 @@
     <t>property_power</t>
   </si>
   <si>
+    <t>100|100</t>
+  </si>
+  <si>
     <t>心情</t>
   </si>
   <si>
@@ -85,6 +103,18 @@
   </si>
   <si>
     <t>property_selfControl</t>
+  </si>
+  <si>
+    <t>10|30</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>魅力</t>
+  </si>
+  <si>
+    <t>property_charm</t>
   </si>
 </sst>
 </file>
@@ -94,8 +124,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,14 +137,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,128 +279,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -259,181 +289,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,71 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,7 +502,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +541,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,22 +1085,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,124 +1117,168 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>10001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>10002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>10003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>10004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>10005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>10006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>10007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="10005"/>
+    <workbookView windowWidth="29325" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -36,6 +36,12 @@
     <t>newRdmRange</t>
   </si>
   <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>isExamBattle</t>
+  </si>
+  <si>
     <t>知识</t>
   </si>
   <si>
@@ -115,6 +121,78 @@
   </si>
   <si>
     <t>property_charm</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>精力</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>300|450</t>
+  </si>
+  <si>
+    <t>精力降为0时玩家将结束做题</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>学习能力</t>
+  </si>
+  <si>
+    <t>gongji</t>
+  </si>
+  <si>
+    <t>30|50</t>
+  </si>
+  <si>
+    <t>直接影响单次攻击难题的伤害</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>学习心态</t>
+  </si>
+  <si>
+    <t>fangyu</t>
+  </si>
+  <si>
+    <t>面对难题时，更好的心态意味着对难题的抵御力更强</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>灵感</t>
+  </si>
+  <si>
+    <t>baojilv</t>
+  </si>
+  <si>
+    <t>20|20</t>
+  </si>
+  <si>
+    <t>灵感，让你有几率在面对难题时打出超出当前学习能力的伤害。对于一些特殊的题目，也能达到破防的效果</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>解题速度</t>
+  </si>
+  <si>
+    <t>gongsu</t>
+  </si>
+  <si>
+    <t>100|120</t>
+  </si>
+  <si>
+    <t>天下武功，无快不破</t>
   </si>
 </sst>
 </file>
@@ -122,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,28 +211,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,7 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,41 +236,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,47 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +311,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -289,187 +367,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +558,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,26 +631,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,45 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,142 +678,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1085,23 +1169,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="25.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,6 +1205,12 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1126,19 +1218,19 @@
         <v>10001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1146,19 +1238,19 @@
         <v>10002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1166,19 +1258,19 @@
         <v>10003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1186,19 +1278,19 @@
         <v>10004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1206,19 +1298,19 @@
         <v>10005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1226,19 +1318,19 @@
         <v>10006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1246,39 +1338,169 @@
         <v>10007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="10815"/>
+    <workbookView windowWidth="27810" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -236,7 +236,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +264,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -258,15 +294,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,86 +364,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,14 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -388,13 +388,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,169 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,11 +582,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,50 +660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,21 +679,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -687,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="9525"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <t>gongsu</t>
   </si>
   <si>
-    <t>100|120</t>
+    <t>1|1</t>
   </si>
   <si>
     <t>天下武功，无快不破</t>
@@ -221,9 +221,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -243,14 +243,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,8 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +291,66 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,86 +364,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,12 +388,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,169 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,30 +579,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -645,6 +621,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -662,15 +671,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -687,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="27810" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>致命一击的脑力</t>
+  </si>
+  <si>
+    <t>10016</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>每一分，都拉下成千上万的人</t>
   </si>
 </sst>
 </file>
@@ -221,8 +233,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -249,6 +261,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -258,10 +322,56 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,14 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -288,96 +390,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,19 +406,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,13 +550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,127 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,17 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,15 +630,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -650,6 +647,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,130 +711,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1574,6 +1586,29 @@
       </c>
       <c r="H16" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="9525"/>
+    <workbookView windowWidth="23970" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,9 @@
     <t>isExamBattle</t>
   </si>
   <si>
+    <t>isChangeWithLevel</t>
+  </si>
+  <si>
     <t>知识</t>
   </si>
   <si>
@@ -226,6 +229,60 @@
   </si>
   <si>
     <t>每一分，都拉下成千上万的人</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>学习魅力</t>
+  </si>
+  <si>
+    <t>腹有诗书气自华</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>学习抗性</t>
+  </si>
+  <si>
+    <t>见识越多，越是波澜不惊</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>体育魅力</t>
+  </si>
+  <si>
+    <t>运动使你更美</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>体育抗性</t>
+  </si>
+  <si>
+    <t>手无缚鸡之力，想撩谁呢</t>
+  </si>
+  <si>
+    <t>10021</t>
+  </si>
+  <si>
+    <t>艺术魅力</t>
+  </si>
+  <si>
+    <t>有艺术细胞的人在哪里都会受到欢迎</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>艺术抗性</t>
+  </si>
+  <si>
+    <t>想对牛弹琴吗，那试试铁面的味道吧</t>
   </si>
 </sst>
 </file>
@@ -247,27 +304,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -297,6 +334,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -305,17 +424,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,68 +447,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -400,181 +457,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,11 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,26 +690,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,21 +729,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -691,6 +739,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -699,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +768,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,13 +1259,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
@@ -1216,11 +1273,12 @@
     <col min="5" max="5" width="34.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,6 +1302,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1251,19 +1312,19 @@
         <v>10001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1271,19 +1332,19 @@
         <v>10002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1291,19 +1352,19 @@
         <v>10003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1311,19 +1372,19 @@
         <v>10004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1331,19 +1392,19 @@
         <v>10005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1351,19 +1412,19 @@
         <v>10006</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1371,244 +1432,421 @@
         <v>10007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="1" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -290,9 +290,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -304,6 +304,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -312,6 +326,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -320,47 +417,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,43 +437,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,38 +447,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -457,31 +457,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,79 +601,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,36 +631,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -626,18 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,23 +669,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,34 +719,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,133 +768,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,7 +1262,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23970" windowHeight="10020"/>
+    <workbookView windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,9 @@
     <t>isChangeWithLevel</t>
   </si>
   <si>
+    <t>isInitRdm</t>
+  </si>
+  <si>
     <t>知识</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
     <t>10|20</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>艺术</t>
   </si>
   <si>
@@ -79,9 +85,6 @@
   </si>
   <si>
     <t>钱</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>property_money</t>
@@ -291,8 +294,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -305,6 +308,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -312,7 +322,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,35 +330,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +341,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,6 +366,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,15 +429,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,37 +450,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -457,187 +460,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +651,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,8 +705,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,21 +718,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,15 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -739,15 +751,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -756,145 +759,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1259,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1275,10 +1278,11 @@
     <col min="7" max="7" width="30.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,547 +1310,574 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>10001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>10002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>10003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>10004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>10005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>10006</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>10007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/property.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="10020"/>
+    <workbookView windowWidth="28125" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -60,7 +60,7 @@
     <t>property_knowledge</t>
   </si>
   <si>
-    <t>10|20</t>
+    <t>0|0</t>
   </si>
   <si>
     <t>1</t>
@@ -72,16 +72,10 @@
     <t>property_music</t>
   </si>
   <si>
-    <t>5|12</t>
-  </si>
-  <si>
     <t>体育</t>
   </si>
   <si>
     <t>property_physical</t>
-  </si>
-  <si>
-    <t>4|10</t>
   </si>
   <si>
     <t>钱</t>
@@ -307,8 +301,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,7 +331,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +376,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -344,43 +391,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -396,24 +407,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,30 +444,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -460,187 +454,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,6 +645,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,30 +729,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -721,36 +745,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -759,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,133 +765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,7 +1259,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1354,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -1365,7 +1359,7 @@
         <v>10003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1374,10 +1368,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -1388,7 +1382,7 @@
         <v>10004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -1397,10 +1391,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -1411,19 +1405,19 @@
         <v>10005</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -1434,19 +1428,19 @@
         <v>10006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -1457,7 +1451,7 @@
         <v>10007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -1466,10 +1460,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -1477,10 +1471,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -1489,10 +1483,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -1500,10 +1494,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1512,13 +1506,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
@@ -1529,10 +1523,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1541,13 +1535,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
@@ -1558,10 +1552,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -1570,13 +1564,13 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
@@ -1587,25 +1581,25 @@
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:9">
       <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>15</v>
@@ -1616,10 +1610,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
@@ -1628,13 +1622,13 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>15</v>
@@ -1645,10 +1639,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1657,13 +1651,13 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
@@ -1674,10 +1668,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1686,13 +1680,13 @@
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>15</v>
@@ -1703,10 +1697,10 @@
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1715,21 +1709,21 @@
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1738,13 +1732,13 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
@@ -1752,10 +1746,10 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1764,13 +1758,13 @@
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>15</v>
@@ -1778,10 +1772,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1790,13 +1784,13 @@
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
@@ -1804,10 +1798,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1816,13 +1810,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>15</v>
@@ -1830,10 +1824,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1842,13 +1836,13 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>15</v>
@@ -1856,10 +1850,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1868,13 +1862,13 @@
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>15</v>
